--- a/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/BRNomeExameGal-LOINC.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/BRNomeExameGal-LOINC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0790AA0B-C25F-854F-85E8-F5ED0AD90496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F609AADB-7088-4543-80FC-9ADE5BB5F66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="1320" windowWidth="24840" windowHeight="13440" xr2:uid="{81E003D8-AB82-A743-B28C-D5B1C61B00A8}"/>
+    <workbookView xWindow="2360" yWindow="5260" windowWidth="24840" windowHeight="13440" xr2:uid="{81E003D8-AB82-A743-B28C-D5B1C61B00A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/BRNomeExameGal-LOINC.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/BRNomeExameGal-LOINC.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F609AADB-7088-4543-80FC-9ADE5BB5F66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD49DB5-03BF-A141-B95F-EAB91ED3DC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="5260" windowWidth="24840" windowHeight="13440" xr2:uid="{81E003D8-AB82-A743-B28C-D5B1C61B00A8}"/>
+    <workbookView xWindow="2100" yWindow="2920" windowWidth="24840" windowHeight="13440" xr2:uid="{81E003D8-AB82-A743-B28C-D5B1C61B00A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BRGAL-LOINC" sheetId="1" r:id="rId1"/>
+    <sheet name="GRauEquivalencia" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>MS</t>
   </si>
@@ -102,13 +103,39 @@
   </si>
   <si>
     <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>coronavirusnCoV</t>
+  </si>
+  <si>
+    <t>Novo coronavírus (2019-nCoV)</t>
+  </si>
+  <si>
+    <t>1 - Equivalência de significado; léxica e também conceitual.</t>
+  </si>
+  <si>
+    <t>2-Equivalência de significado, mas com sinonímia.</t>
+  </si>
+  <si>
+    <t>3 -O conceito-fonte é mais amplo e tem menos significado específico que o
+conceito/termo-alvo.</t>
+  </si>
+  <si>
+    <t>4 - O conceito-fonte é mais restrito e tem mais significado específico que o
+conceito/termo-alvo.</t>
+  </si>
+  <si>
+    <t>5 -Nenhum mapeamento é possível</t>
+  </si>
+  <si>
+    <t>1..1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,6 +162,26 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -181,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -191,6 +238,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -507,22 +567,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F611A0E9-0885-C742-8625-FB99112D4A83}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -556,54 +617,124 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{A6571459-47D3-5246-B6C1-0CC1EB7B304B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{A6571459-47D3-5246-B6C1-0CC1EB7B304B}">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6DD5B0-C92A-3E40-9C06-07235267D21C}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>